--- a/Results_Overall_for_Thesis.xlsx
+++ b/Results_Overall_for_Thesis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/Masterarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\OneDrive\Dokumente\GitHub\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_496D8417C2602A0E6235547658C306B9B723821B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E128355-2AA3-45F6-8EBD-42707372009A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF360EFD-3606-408C-909C-2A4B33E62FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69495" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Total Return</t>
   </si>
   <si>
+    <t>Annualized Volatility</t>
+  </si>
+  <si>
     <t>Sharpe Ratio</t>
   </si>
   <si>
+    <t>Max Drawdown</t>
+  </si>
+  <si>
     <t>Sortino Ratio</t>
   </si>
   <si>
-    <t>Max Drawdown</t>
-  </si>
-  <si>
-    <t>Annualized Volatility</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>Beta CTA</t>
+  </si>
+  <si>
+    <t>Beta SPY</t>
   </si>
   <si>
     <t>SPY</t>
@@ -84,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -115,6 +119,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -151,22 +161,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -470,320 +476,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.401144884140185</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.19648139902700529</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.35847746182765827</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-0.56473669178171626</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.50462448666941773</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3.034128335124936E-2</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.260103825300148</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.8528249364255693E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.61028098674909215</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-9.9127010995393228E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.068439559257248</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>-3.4968933456164669E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.395915796828147</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.4802799329199249E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.45783818528688358</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-0.22329198163770411</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.68899982529318737</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.343226178307827E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-0.1153797921217713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.3737439259474939</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.4272886897806681E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.45573351381009131</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-0.2258211673317673</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.68641118637397358</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.43963916651211E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-0.1147147758478763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.0165997063184711</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.2844754174980134E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.38276115094714219</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-0.26842475000255211</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.56377341078107912</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.5145093366619319E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-9.1794493392403753E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.45495465995066509</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.1089512195646418E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.2268119651203041</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-0.34830856549436517</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.33901185356330149</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4.9481615964982158E-3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-6.8732521858375084E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-0.44250594089962941</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.2750551353430754E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.28759232147936281</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-0.46948077183890841</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.39461358879271319</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-4.8847467684361601E-4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.7529632876520178E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.0577689473788841</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.759112905439204E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.79345006019315134</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-0.1001593238369826</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.176059896471477</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.3430600021503807E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-5.4027981149579081E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.100253606065257</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.7715334571525122E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.81283470215807296</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-9.7420190773993776E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.1938714891652431</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.7985493921552242E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-5.2073570337229279E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.019600845517364</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.6822458186853042E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.78873158945812527</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-0.125532464937643</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.142775263061848</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6.5810231706596879E-3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-4.7399804109795697E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.43711318743655242</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.5231550693403342E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.43295534642194711</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-0.18497295343839201</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.63389111564235789</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6.4162213082265074E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-3.0480105788934741E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.401144884140185</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.35847746182765827</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.50462448666941773</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-0.56473669178171626</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.19648139902700529</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.260103825300148</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.61028098674909215</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.068439559257248</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-9.9127010995393228E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5.8528249364255693E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>-3.4968933456164669E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.395915796828147</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.45783818528688358</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.68899982529318737</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.22329198163770411</v>
-      </c>
-      <c r="F4" s="3">
-        <v>8.4802799329199249E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-0.1153797921217713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.3737439259474939</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.45573351381009131</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.68641118637397358</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.2258211673317673</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8.4272886897806681E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>-0.1147147758478763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.0165997063184711</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.38276115094714219</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.56377341078107912</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.26842475000255211</v>
-      </c>
-      <c r="F6" s="3">
-        <v>8.2844754174980134E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>-9.1794493392403753E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.45495465995066509</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.2268119651203041</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.33901185356330149</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.34830856549436517</v>
-      </c>
-      <c r="F7" s="3">
-        <v>8.1089512195646418E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-6.8732521858375084E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-0.44250594089962941</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-0.28759232147936281</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-0.39461358879271319</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.46948077183890841</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7.2750551353430754E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4.7529632876520178E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.0577689473788841</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.79345006019315134</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.176059896471477</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-0.1001593238369826</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.759112905439204E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>-5.4027981149579081E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.100253606065257</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.81283470215807296</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.1938714891652431</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-9.7420190773993776E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.7715334571525122E-2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-5.2073570337229279E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.019600845517364</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.78873158945812527</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.142775263061848</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-0.125532464937643</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3.6822458186853042E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>-4.7399804109795697E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.43711318743655242</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.43295534642194711</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.63389111564235789</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-0.18497295343839201</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.5231550693403342E-2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-3.0480105788934741E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>-0.29164756287376081</v>
       </c>
       <c r="C13" s="4">
+        <v>3.1524020951506228E-2</v>
+      </c>
+      <c r="D13" s="5">
         <v>-0.42559501219540707</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
+        <v>-0.31624357289379967</v>
+      </c>
+      <c r="F13" s="5">
         <v>-0.56898440931860061</v>
       </c>
-      <c r="E13" s="3">
-        <v>-0.31624357289379967</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3.1524020951506228E-2</v>
-      </c>
       <c r="G13" s="6">
+        <v>-1.6298338314635621E-3</v>
+      </c>
+      <c r="H13" s="6">
         <v>2.5686935161267039E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>